--- a/examples/model_config.HH3000.workingversionnew.xlsx
+++ b/examples/model_config.HH3000.workingversionnew.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jianghui\Documents\Manuscripts\Fe-Nd isotope\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jianghui\.julia\dev\SedTrace\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-94" yWindow="-94" windowWidth="23229" windowHeight="12549" activeTab="4"/>
+    <workbookView xWindow="-94" yWindow="-94" windowWidth="23229" windowHeight="12549" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="substances" sheetId="1" r:id="rId1"/>
@@ -5152,8 +5152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5668,9 +5668,6 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35">
-        <v>1</v>
-      </c>
       <c r="B35" t="s">
         <v>73</v>
       </c>
@@ -6202,7 +6199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/examples/model_config.HH3000.workingversionnew.xlsx
+++ b/examples/model_config.HH3000.workingversionnew.xlsx
@@ -5152,8 +5152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/examples/model_config.HH3000.workingversionnew.xlsx
+++ b/examples/model_config.HH3000.workingversionnew.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-94" yWindow="-94" windowWidth="23229" windowHeight="12549" activeTab="2"/>
+    <workbookView xWindow="-94" yWindow="-94" windowWidth="23229" windowHeight="12549" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="substances" sheetId="1" r:id="rId1"/>
@@ -3054,9 +3054,6 @@
     <t>Gausse2016</t>
   </si>
   <si>
-    <t>Dbt0 * fO2bt * exp(-x/ xbt)</t>
-  </si>
-  <si>
     <t>2/(86.93685/ds_rho/10)</t>
   </si>
   <si>
@@ -3073,6 +3070,9 @@
   </si>
   <si>
     <t>L/20</t>
+  </si>
+  <si>
+    <t>Dbt0 * fO2bt * exp(-x^2/(2* xbt^2))</t>
   </si>
 </sst>
 </file>
@@ -3665,7 +3665,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4215,7 +4215,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>450</v>
@@ -4236,7 +4236,7 @@
         <v>757</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>498</v>
@@ -4257,7 +4257,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>90</v>
@@ -4278,7 +4278,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>91</v>
@@ -4299,7 +4299,7 @@
         <v>355</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>356</v>
@@ -4320,7 +4320,7 @@
         <v>587</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D33" s="21" t="s">
         <v>588</v>
@@ -5152,8 +5152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5668,6 +5668,9 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>1</v>
+      </c>
       <c r="B35" t="s">
         <v>73</v>
       </c>
@@ -5983,7 +5986,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6199,17 +6202,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.23046875" style="5"/>
     <col min="2" max="2" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73.15234375" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.23046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3828125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.3046875" style="56" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="54.4609375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="52.3828125" style="5" customWidth="1"/>
     <col min="8" max="8" width="22.53515625" style="5" bestFit="1" customWidth="1"/>
@@ -6394,7 +6397,7 @@
         <v>339</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>268</v>
@@ -6417,7 +6420,7 @@
         <v>343</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>268</v>
@@ -6592,7 +6595,7 @@
         <v>340</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>394</v>
@@ -6718,7 +6721,7 @@
         <v>364</v>
       </c>
       <c r="E21" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>268</v>
@@ -6899,7 +6902,7 @@
         <v>365</v>
       </c>
       <c r="E28" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>268</v>
@@ -6951,7 +6954,7 @@
         <v>478</v>
       </c>
       <c r="E30" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F30" t="s">
         <v>479</v>
@@ -8159,7 +8162,7 @@
         <v>190</v>
       </c>
       <c r="E78" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F78" t="s">
         <v>490</v>
@@ -8185,7 +8188,7 @@
         <v>191</v>
       </c>
       <c r="E79" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F79" t="s">
         <v>490</v>
@@ -9399,7 +9402,7 @@
       </c>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A128" s="5">
         <v>1</v>
       </c>

--- a/examples/model_config.HH3000.workingversionnew.xlsx
+++ b/examples/model_config.HH3000.workingversionnew.xlsx
@@ -3664,8 +3664,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6374,7 +6374,7 @@
         <v>159</v>
       </c>
       <c r="E7" s="6">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>392</v>
